--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -583,6 +583,16 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1" s="1">
       <c r="A2" s="14" t="n"/>
@@ -597,6 +607,16 @@
           <t>PWPB4</t>
         </is>
       </c>
+      <c r="E2" s="15" t="inlineStr">
+        <is>
+          <t>BINDO2</t>
+        </is>
+      </c>
+      <c r="F2" s="15" t="inlineStr">
+        <is>
+          <t>BINDO3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1" s="1">
       <c r="A3" s="12" t="n">
@@ -617,6 +637,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E3" s="12" t="inlineStr"/>
+      <c r="F3" s="18" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1" s="1">
       <c r="A4" s="12" t="n">
@@ -629,6 +651,8 @@
       </c>
       <c r="C4" s="12" t="inlineStr"/>
       <c r="D4" s="18" t="inlineStr"/>
+      <c r="E4" s="12" t="inlineStr"/>
+      <c r="F4" s="18" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1" s="1">
       <c r="A5" s="12" t="n">
@@ -645,6 +669,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E5" s="12" t="inlineStr"/>
+      <c r="F5" s="18" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="1">
       <c r="A6" s="12" t="n">
@@ -657,6 +683,8 @@
       </c>
       <c r="C6" s="12" t="inlineStr"/>
       <c r="D6" s="18" t="inlineStr"/>
+      <c r="E6" s="12" t="inlineStr"/>
+      <c r="F6" s="18" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
       <c r="A7" s="12" t="n">
@@ -673,6 +701,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E7" s="12" t="inlineStr"/>
+      <c r="F7" s="18" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
       <c r="A8" s="12" t="n">
@@ -685,6 +715,8 @@
       </c>
       <c r="C8" s="12" t="inlineStr"/>
       <c r="D8" s="18" t="inlineStr"/>
+      <c r="E8" s="12" t="inlineStr"/>
+      <c r="F8" s="18" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="1">
       <c r="A9" s="12" t="n">
@@ -697,6 +729,8 @@
       </c>
       <c r="C9" s="12" t="inlineStr"/>
       <c r="D9" s="18" t="inlineStr"/>
+      <c r="E9" s="12" t="inlineStr"/>
+      <c r="F9" s="18" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
       <c r="A10" s="12" t="n">
@@ -709,6 +743,8 @@
       </c>
       <c r="C10" s="12" t="inlineStr"/>
       <c r="D10" s="18" t="inlineStr"/>
+      <c r="E10" s="12" t="inlineStr"/>
+      <c r="F10" s="18" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="1">
       <c r="A11" s="12" t="n">
@@ -729,6 +765,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E11" s="12" t="inlineStr"/>
+      <c r="F11" s="18" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
       <c r="A12" s="12" t="n">
@@ -741,6 +779,8 @@
       </c>
       <c r="C12" s="12" t="inlineStr"/>
       <c r="D12" s="18" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr"/>
+      <c r="F12" s="18" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1" s="1">
       <c r="A13" s="12" t="n">
@@ -753,6 +793,8 @@
       </c>
       <c r="C13" s="12" t="inlineStr"/>
       <c r="D13" s="18" t="inlineStr"/>
+      <c r="E13" s="12" t="inlineStr"/>
+      <c r="F13" s="18" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1" s="1">
       <c r="A14" s="12" t="n">
@@ -769,6 +811,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E14" s="12" t="inlineStr"/>
+      <c r="F14" s="18" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1" s="1">
       <c r="A15" s="12" t="n">
@@ -785,6 +829,8 @@
         </is>
       </c>
       <c r="D15" s="18" t="inlineStr"/>
+      <c r="E15" s="12" t="inlineStr"/>
+      <c r="F15" s="18" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1" s="1">
       <c r="A16" s="12" t="n">
@@ -797,6 +843,8 @@
       </c>
       <c r="C16" s="12" t="inlineStr"/>
       <c r="D16" s="18" t="inlineStr"/>
+      <c r="E16" s="12" t="inlineStr"/>
+      <c r="F16" s="18" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" s="1">
       <c r="A17" s="12" t="n">
@@ -809,6 +857,8 @@
       </c>
       <c r="C17" s="12" t="inlineStr"/>
       <c r="D17" s="18" t="inlineStr"/>
+      <c r="E17" s="12" t="inlineStr"/>
+      <c r="F17" s="18" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1" s="1">
       <c r="A18" s="12" t="n">
@@ -829,6 +879,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E18" s="12" t="inlineStr"/>
+      <c r="F18" s="18" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1" s="1">
       <c r="A19" s="12" t="n">
@@ -841,6 +893,8 @@
       </c>
       <c r="C19" s="12" t="inlineStr"/>
       <c r="D19" s="18" t="inlineStr"/>
+      <c r="E19" s="12" t="inlineStr"/>
+      <c r="F19" s="18" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1" s="1">
       <c r="A20" s="12" t="n">
@@ -853,6 +907,8 @@
       </c>
       <c r="C20" s="12" t="inlineStr"/>
       <c r="D20" s="18" t="inlineStr"/>
+      <c r="E20" s="12" t="inlineStr"/>
+      <c r="F20" s="18" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1" s="1">
       <c r="A21" s="12" t="n">
@@ -865,6 +921,8 @@
       </c>
       <c r="C21" s="12" t="inlineStr"/>
       <c r="D21" s="18" t="inlineStr"/>
+      <c r="E21" s="12" t="inlineStr"/>
+      <c r="F21" s="18" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" s="1">
       <c r="A22" s="12" t="n">
@@ -877,6 +935,8 @@
       </c>
       <c r="C22" s="12" t="inlineStr"/>
       <c r="D22" s="18" t="inlineStr"/>
+      <c r="E22" s="12" t="inlineStr"/>
+      <c r="F22" s="18" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1" s="1">
       <c r="A23" s="12" t="n">
@@ -889,6 +949,8 @@
       </c>
       <c r="C23" s="12" t="inlineStr"/>
       <c r="D23" s="18" t="inlineStr"/>
+      <c r="E23" s="12" t="inlineStr"/>
+      <c r="F23" s="18" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" s="1">
       <c r="A24" s="12" t="n">
@@ -901,6 +963,8 @@
       </c>
       <c r="C24" s="12" t="inlineStr"/>
       <c r="D24" s="18" t="inlineStr"/>
+      <c r="E24" s="12" t="inlineStr"/>
+      <c r="F24" s="18" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1" s="1">
       <c r="A25" s="12" t="n">
@@ -921,6 +985,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E25" s="12" t="inlineStr"/>
+      <c r="F25" s="18" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1" s="1">
       <c r="A26" s="12" t="n">
@@ -933,6 +999,8 @@
       </c>
       <c r="C26" s="12" t="inlineStr"/>
       <c r="D26" s="18" t="inlineStr"/>
+      <c r="E26" s="12" t="inlineStr"/>
+      <c r="F26" s="18" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1" s="1">
       <c r="A27" s="12" t="n">
@@ -945,6 +1013,8 @@
       </c>
       <c r="C27" s="12" t="inlineStr"/>
       <c r="D27" s="18" t="inlineStr"/>
+      <c r="E27" s="12" t="inlineStr"/>
+      <c r="F27" s="18" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1" s="1">
       <c r="A28" s="12" t="n">
@@ -965,6 +1035,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E28" s="12" t="inlineStr"/>
+      <c r="F28" s="18" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1" s="1">
       <c r="A29" s="12" t="n">
@@ -977,6 +1049,8 @@
       </c>
       <c r="C29" s="12" t="inlineStr"/>
       <c r="D29" s="18" t="inlineStr"/>
+      <c r="E29" s="12" t="inlineStr"/>
+      <c r="F29" s="18" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1" s="1">
       <c r="A30" s="12" t="n">
@@ -993,6 +1067,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E30" s="12" t="inlineStr"/>
+      <c r="F30" s="18" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1" s="1">
       <c r="A31" s="12" t="n">
@@ -1013,6 +1089,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E31" s="12" t="inlineStr"/>
+      <c r="F31" s="18" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1" s="1">
       <c r="A32" s="12" t="n">
@@ -1024,7 +1102,13 @@
         </is>
       </c>
       <c r="C32" s="12" t="inlineStr"/>
-      <c r="D32" s="18" t="inlineStr"/>
+      <c r="D32" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="12" t="inlineStr"/>
+      <c r="F32" s="18" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1" s="1">
       <c r="A33" s="12" t="n">
@@ -1035,8 +1119,18 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="12" t="inlineStr"/>
-      <c r="D33" s="18" t="inlineStr"/>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="inlineStr"/>
+      <c r="F33" s="18" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1" s="1">
       <c r="A34" s="12" t="n">
@@ -1053,6 +1147,8 @@
         </is>
       </c>
       <c r="D34" s="18" t="inlineStr"/>
+      <c r="E34" s="12" t="inlineStr"/>
+      <c r="F34" s="18" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1" s="1">
       <c r="A35" s="12" t="n">
@@ -1073,6 +1169,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E35" s="12" t="inlineStr"/>
+      <c r="F35" s="18" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1" s="1">
       <c r="A36" s="12" t="n">
@@ -1085,6 +1183,8 @@
       </c>
       <c r="C36" s="12" t="inlineStr"/>
       <c r="D36" s="18" t="inlineStr"/>
+      <c r="E36" s="12" t="inlineStr"/>
+      <c r="F36" s="18" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1" s="1">
       <c r="A37" s="12" t="n">
@@ -1101,6 +1201,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E37" s="12" t="inlineStr"/>
+      <c r="F37" s="18" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -682,7 +682,11 @@
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr"/>
-      <c r="D6" s="18" t="inlineStr"/>
+      <c r="D6" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E6" s="12" t="inlineStr"/>
       <c r="F6" s="18" t="inlineStr"/>
     </row>
@@ -919,7 +923,11 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="12" t="inlineStr"/>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D21" s="18" t="inlineStr"/>
       <c r="E21" s="12" t="inlineStr"/>
       <c r="F21" s="18" t="inlineStr"/>
@@ -986,7 +994,11 @@
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr"/>
-      <c r="F25" s="18" t="inlineStr"/>
+      <c r="F25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1" s="1">
       <c r="A26" s="12" t="n">
@@ -1170,7 +1182,11 @@
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr"/>
-      <c r="F35" s="18" t="inlineStr"/>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1" s="1">
       <c r="A36" s="12" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -593,6 +593,21 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>Tugas 6</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>Tugas 7</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1" s="1">
       <c r="A2" s="14" t="n"/>
@@ -617,6 +632,21 @@
           <t>BINDO3</t>
         </is>
       </c>
+      <c r="G2" s="15" t="inlineStr">
+        <is>
+          <t>PAI5</t>
+        </is>
+      </c>
+      <c r="H2" s="15" t="inlineStr">
+        <is>
+          <t>BING3</t>
+        </is>
+      </c>
+      <c r="I2" s="15" t="inlineStr">
+        <is>
+          <t>BASDA2</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1" s="1">
       <c r="A3" s="12" t="n">
@@ -637,8 +667,27 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr"/>
-      <c r="F3" s="18" t="inlineStr"/>
+      <c r="E3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I3" s="12" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1" s="1">
       <c r="A4" s="12" t="n">
@@ -651,8 +700,19 @@
       </c>
       <c r="C4" s="12" t="inlineStr"/>
       <c r="D4" s="18" t="inlineStr"/>
-      <c r="E4" s="12" t="inlineStr"/>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F4" s="18" t="inlineStr"/>
+      <c r="G4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H4" s="18" t="inlineStr"/>
+      <c r="I4" s="12" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1" s="1">
       <c r="A5" s="12" t="n">
@@ -669,8 +729,27 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr"/>
-      <c r="F5" s="18" t="inlineStr"/>
+      <c r="E5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I5" s="12" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="1">
       <c r="A6" s="12" t="n">
@@ -689,6 +768,13 @@
       </c>
       <c r="E6" s="12" t="inlineStr"/>
       <c r="F6" s="18" t="inlineStr"/>
+      <c r="G6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H6" s="18" t="inlineStr"/>
+      <c r="I6" s="12" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
       <c r="A7" s="12" t="n">
@@ -699,14 +785,33 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr"/>
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E7" s="12" t="inlineStr"/>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F7" s="18" t="inlineStr"/>
+      <c r="G7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I7" s="12" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
       <c r="A8" s="12" t="n">
@@ -719,8 +824,15 @@
       </c>
       <c r="C8" s="12" t="inlineStr"/>
       <c r="D8" s="18" t="inlineStr"/>
-      <c r="E8" s="12" t="inlineStr"/>
+      <c r="E8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F8" s="18" t="inlineStr"/>
+      <c r="G8" s="12" t="inlineStr"/>
+      <c r="H8" s="18" t="inlineStr"/>
+      <c r="I8" s="12" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="1">
       <c r="A9" s="12" t="n">
@@ -731,10 +843,25 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr"/>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D9" s="18" t="inlineStr"/>
       <c r="E9" s="12" t="inlineStr"/>
       <c r="F9" s="18" t="inlineStr"/>
+      <c r="G9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I9" s="12" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
       <c r="A10" s="12" t="n">
@@ -749,6 +876,9 @@
       <c r="D10" s="18" t="inlineStr"/>
       <c r="E10" s="12" t="inlineStr"/>
       <c r="F10" s="18" t="inlineStr"/>
+      <c r="G10" s="12" t="inlineStr"/>
+      <c r="H10" s="18" t="inlineStr"/>
+      <c r="I10" s="12" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="1">
       <c r="A11" s="12" t="n">
@@ -771,6 +901,17 @@
       </c>
       <c r="E11" s="12" t="inlineStr"/>
       <c r="F11" s="18" t="inlineStr"/>
+      <c r="G11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I11" s="12" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
       <c r="A12" s="12" t="n">
@@ -781,10 +922,21 @@
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="12" t="inlineStr"/>
+      <c r="C12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D12" s="18" t="inlineStr"/>
       <c r="E12" s="12" t="inlineStr"/>
       <c r="F12" s="18" t="inlineStr"/>
+      <c r="G12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H12" s="18" t="inlineStr"/>
+      <c r="I12" s="12" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1" s="1">
       <c r="A13" s="12" t="n">
@@ -795,10 +947,29 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr"/>
-      <c r="D13" s="18" t="inlineStr"/>
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E13" s="12" t="inlineStr"/>
       <c r="F13" s="18" t="inlineStr"/>
+      <c r="G13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I13" s="12" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1" s="1">
       <c r="A14" s="12" t="n">
@@ -816,7 +987,22 @@
         </is>
       </c>
       <c r="E14" s="12" t="inlineStr"/>
-      <c r="F14" s="18" t="inlineStr"/>
+      <c r="F14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G14" s="12" t="inlineStr">
+        <is>
+          <t>KRISTEN</t>
+        </is>
+      </c>
+      <c r="H14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I14" s="12" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1" s="1">
       <c r="A15" s="12" t="n">
@@ -834,7 +1020,22 @@
       </c>
       <c r="D15" s="18" t="inlineStr"/>
       <c r="E15" s="12" t="inlineStr"/>
-      <c r="F15" s="18" t="inlineStr"/>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I15" s="12" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1" s="1">
       <c r="A16" s="12" t="n">
@@ -849,6 +1050,9 @@
       <c r="D16" s="18" t="inlineStr"/>
       <c r="E16" s="12" t="inlineStr"/>
       <c r="F16" s="18" t="inlineStr"/>
+      <c r="G16" s="12" t="inlineStr"/>
+      <c r="H16" s="18" t="inlineStr"/>
+      <c r="I16" s="12" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" s="1">
       <c r="A17" s="12" t="n">
@@ -860,9 +1064,20 @@
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr"/>
-      <c r="D17" s="18" t="inlineStr"/>
-      <c r="E17" s="12" t="inlineStr"/>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F17" s="18" t="inlineStr"/>
+      <c r="G17" s="12" t="inlineStr"/>
+      <c r="H17" s="18" t="inlineStr"/>
+      <c r="I17" s="12" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1" s="1">
       <c r="A18" s="12" t="n">
@@ -883,8 +1098,23 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E18" s="12" t="inlineStr"/>
-      <c r="F18" s="18" t="inlineStr"/>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H18" s="18" t="inlineStr"/>
+      <c r="I18" s="12" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1" s="1">
       <c r="A19" s="12" t="n">
@@ -896,9 +1126,28 @@
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr"/>
-      <c r="D19" s="18" t="inlineStr"/>
-      <c r="E19" s="12" t="inlineStr"/>
+      <c r="D19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F19" s="18" t="inlineStr"/>
+      <c r="G19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I19" s="12" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1" s="1">
       <c r="A20" s="12" t="n">
@@ -909,10 +1158,29 @@
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="12" t="inlineStr"/>
-      <c r="D20" s="18" t="inlineStr"/>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E20" s="12" t="inlineStr"/>
-      <c r="F20" s="18" t="inlineStr"/>
+      <c r="F20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H20" s="18" t="inlineStr"/>
+      <c r="I20" s="12" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1" s="1">
       <c r="A21" s="12" t="n">
@@ -931,6 +1199,13 @@
       <c r="D21" s="18" t="inlineStr"/>
       <c r="E21" s="12" t="inlineStr"/>
       <c r="F21" s="18" t="inlineStr"/>
+      <c r="G21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H21" s="18" t="inlineStr"/>
+      <c r="I21" s="12" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" s="1">
       <c r="A22" s="12" t="n">
@@ -944,7 +1219,14 @@
       <c r="C22" s="12" t="inlineStr"/>
       <c r="D22" s="18" t="inlineStr"/>
       <c r="E22" s="12" t="inlineStr"/>
-      <c r="F22" s="18" t="inlineStr"/>
+      <c r="F22" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr"/>
+      <c r="H22" s="18" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1" s="1">
       <c r="A23" s="12" t="n">
@@ -959,6 +1241,13 @@
       <c r="D23" s="18" t="inlineStr"/>
       <c r="E23" s="12" t="inlineStr"/>
       <c r="F23" s="18" t="inlineStr"/>
+      <c r="G23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H23" s="18" t="inlineStr"/>
+      <c r="I23" s="12" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" s="1">
       <c r="A24" s="12" t="n">
@@ -973,6 +1262,13 @@
       <c r="D24" s="18" t="inlineStr"/>
       <c r="E24" s="12" t="inlineStr"/>
       <c r="F24" s="18" t="inlineStr"/>
+      <c r="G24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H24" s="18" t="inlineStr"/>
+      <c r="I24" s="12" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1" s="1">
       <c r="A25" s="12" t="n">
@@ -993,8 +1289,27 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E25" s="12" t="inlineStr"/>
+      <c r="E25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I25" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1010,9 +1325,20 @@
         </is>
       </c>
       <c r="C26" s="12" t="inlineStr"/>
-      <c r="D26" s="18" t="inlineStr"/>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E26" s="12" t="inlineStr"/>
       <c r="F26" s="18" t="inlineStr"/>
+      <c r="G26" s="12" t="inlineStr">
+        <is>
+          <t>KRISTEN</t>
+        </is>
+      </c>
+      <c r="H26" s="18" t="inlineStr"/>
+      <c r="I26" s="12" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1" s="1">
       <c r="A27" s="12" t="n">
@@ -1024,9 +1350,28 @@
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr"/>
-      <c r="D27" s="18" t="inlineStr"/>
-      <c r="E27" s="12" t="inlineStr"/>
+      <c r="D27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F27" s="18" t="inlineStr"/>
+      <c r="G27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I27" s="12" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1" s="1">
       <c r="A28" s="12" t="n">
@@ -1048,7 +1393,18 @@
         </is>
       </c>
       <c r="E28" s="12" t="inlineStr"/>
-      <c r="F28" s="18" t="inlineStr"/>
+      <c r="F28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G28" s="12" t="inlineStr">
+        <is>
+          <t>KRISTEN</t>
+        </is>
+      </c>
+      <c r="H28" s="18" t="inlineStr"/>
+      <c r="I28" s="12" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1" s="1">
       <c r="A29" s="12" t="n">
@@ -1063,6 +1419,13 @@
       <c r="D29" s="18" t="inlineStr"/>
       <c r="E29" s="12" t="inlineStr"/>
       <c r="F29" s="18" t="inlineStr"/>
+      <c r="G29" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H29" s="18" t="inlineStr"/>
+      <c r="I29" s="12" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1" s="1">
       <c r="A30" s="12" t="n">
@@ -1073,14 +1436,25 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="12" t="inlineStr"/>
+      <c r="C30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D30" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E30" s="12" t="inlineStr"/>
+      <c r="E30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F30" s="18" t="inlineStr"/>
+      <c r="G30" s="12" t="inlineStr"/>
+      <c r="H30" s="18" t="inlineStr"/>
+      <c r="I30" s="12" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1" s="1">
       <c r="A31" s="12" t="n">
@@ -1101,8 +1475,27 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E31" s="12" t="inlineStr"/>
-      <c r="F31" s="18" t="inlineStr"/>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I31" s="12" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1" s="1">
       <c r="A32" s="12" t="n">
@@ -1121,6 +1514,13 @@
       </c>
       <c r="E32" s="12" t="inlineStr"/>
       <c r="F32" s="18" t="inlineStr"/>
+      <c r="G32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H32" s="18" t="inlineStr"/>
+      <c r="I32" s="12" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1" s="1">
       <c r="A33" s="12" t="n">
@@ -1143,6 +1543,13 @@
       </c>
       <c r="E33" s="12" t="inlineStr"/>
       <c r="F33" s="18" t="inlineStr"/>
+      <c r="G33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H33" s="18" t="inlineStr"/>
+      <c r="I33" s="12" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1" s="1">
       <c r="A34" s="12" t="n">
@@ -1161,6 +1568,13 @@
       <c r="D34" s="18" t="inlineStr"/>
       <c r="E34" s="12" t="inlineStr"/>
       <c r="F34" s="18" t="inlineStr"/>
+      <c r="G34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H34" s="18" t="inlineStr"/>
+      <c r="I34" s="12" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1" s="1">
       <c r="A35" s="12" t="n">
@@ -1187,6 +1601,21 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1" s="1">
       <c r="A36" s="12" t="n">
@@ -1197,10 +1626,25 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr"/>
-      <c r="D36" s="18" t="inlineStr"/>
+      <c r="C36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E36" s="12" t="inlineStr"/>
       <c r="F36" s="18" t="inlineStr"/>
+      <c r="G36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H36" s="18" t="inlineStr"/>
+      <c r="I36" s="12" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1" s="1">
       <c r="A37" s="12" t="n">
@@ -1218,7 +1662,22 @@
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr"/>
-      <c r="F37" s="18" t="inlineStr"/>
+      <c r="F37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G37" s="12" t="inlineStr">
+        <is>
+          <t>KRISTEN</t>
+        </is>
+      </c>
+      <c r="H37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I37" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -608,6 +608,11 @@
           <t>Tugas 7</t>
         </is>
       </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>Tugas 8</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1" s="1">
       <c r="A2" s="14" t="n"/>
@@ -647,6 +652,11 @@
           <t>BASDA2</t>
         </is>
       </c>
+      <c r="J2" s="15" t="inlineStr">
+        <is>
+          <t>PKK2</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1" s="1">
       <c r="A3" s="12" t="n">
@@ -688,6 +698,7 @@
         </is>
       </c>
       <c r="I3" s="12" t="inlineStr"/>
+      <c r="J3" s="18" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1" s="1">
       <c r="A4" s="12" t="n">
@@ -698,21 +709,38 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr"/>
-      <c r="D4" s="18" t="inlineStr"/>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F4" s="18" t="inlineStr"/>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I4" s="12" t="inlineStr"/>
+      <c r="J4" s="18" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1" s="1">
       <c r="A5" s="12" t="n">
@@ -750,6 +778,7 @@
         </is>
       </c>
       <c r="I5" s="12" t="inlineStr"/>
+      <c r="J5" s="18" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="1">
       <c r="A6" s="12" t="n">
@@ -767,14 +796,23 @@
         </is>
       </c>
       <c r="E6" s="12" t="inlineStr"/>
-      <c r="F6" s="18" t="inlineStr"/>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G6" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H6" s="18" t="inlineStr"/>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I6" s="12" t="inlineStr"/>
+      <c r="J6" s="18" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
       <c r="A7" s="12" t="n">
@@ -812,6 +850,7 @@
         </is>
       </c>
       <c r="I7" s="12" t="inlineStr"/>
+      <c r="J7" s="18" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
       <c r="A8" s="12" t="n">
@@ -822,17 +861,34 @@
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr"/>
-      <c r="D8" s="18" t="inlineStr"/>
+      <c r="C8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E8" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F8" s="18" t="inlineStr"/>
-      <c r="G8" s="12" t="inlineStr"/>
-      <c r="H8" s="18" t="inlineStr"/>
+      <c r="G8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I8" s="12" t="inlineStr"/>
+      <c r="J8" s="18" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="1">
       <c r="A9" s="12" t="n">
@@ -849,7 +905,11 @@
         </is>
       </c>
       <c r="D9" s="18" t="inlineStr"/>
-      <c r="E9" s="12" t="inlineStr"/>
+      <c r="E9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F9" s="18" t="inlineStr"/>
       <c r="G9" s="16" t="inlineStr">
         <is>
@@ -862,6 +922,7 @@
         </is>
       </c>
       <c r="I9" s="12" t="inlineStr"/>
+      <c r="J9" s="18" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
       <c r="A10" s="12" t="n">
@@ -874,11 +935,16 @@
       </c>
       <c r="C10" s="12" t="inlineStr"/>
       <c r="D10" s="18" t="inlineStr"/>
-      <c r="E10" s="12" t="inlineStr"/>
+      <c r="E10" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F10" s="18" t="inlineStr"/>
       <c r="G10" s="12" t="inlineStr"/>
       <c r="H10" s="18" t="inlineStr"/>
       <c r="I10" s="12" t="inlineStr"/>
+      <c r="J10" s="18" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="1">
       <c r="A11" s="12" t="n">
@@ -899,8 +965,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E11" s="12" t="inlineStr"/>
-      <c r="F11" s="18" t="inlineStr"/>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G11" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -912,6 +986,7 @@
         </is>
       </c>
       <c r="I11" s="12" t="inlineStr"/>
+      <c r="J11" s="18" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
       <c r="A12" s="12" t="n">
@@ -937,6 +1012,7 @@
       </c>
       <c r="H12" s="18" t="inlineStr"/>
       <c r="I12" s="12" t="inlineStr"/>
+      <c r="J12" s="18" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1" s="1">
       <c r="A13" s="12" t="n">
@@ -970,6 +1046,7 @@
         </is>
       </c>
       <c r="I13" s="12" t="inlineStr"/>
+      <c r="J13" s="18" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1" s="1">
       <c r="A14" s="12" t="n">
@@ -980,13 +1057,21 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr"/>
+      <c r="C14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D14" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E14" s="12" t="inlineStr"/>
+      <c r="E14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F14" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1003,6 +1088,7 @@
         </is>
       </c>
       <c r="I14" s="12" t="inlineStr"/>
+      <c r="J14" s="18" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1" s="1">
       <c r="A15" s="12" t="n">
@@ -1018,7 +1104,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D15" s="18" t="inlineStr"/>
+      <c r="D15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E15" s="12" t="inlineStr"/>
       <c r="F15" s="17" t="inlineStr">
         <is>
@@ -1036,6 +1126,7 @@
         </is>
       </c>
       <c r="I15" s="12" t="inlineStr"/>
+      <c r="J15" s="18" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1" s="1">
       <c r="A16" s="12" t="n">
@@ -1046,13 +1137,26 @@
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="12" t="inlineStr"/>
-      <c r="D16" s="18" t="inlineStr"/>
+      <c r="C16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E16" s="12" t="inlineStr"/>
       <c r="F16" s="18" t="inlineStr"/>
-      <c r="G16" s="12" t="inlineStr"/>
+      <c r="G16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H16" s="18" t="inlineStr"/>
       <c r="I16" s="12" t="inlineStr"/>
+      <c r="J16" s="18" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" s="1">
       <c r="A17" s="12" t="n">
@@ -1078,6 +1182,7 @@
       <c r="G17" s="12" t="inlineStr"/>
       <c r="H17" s="18" t="inlineStr"/>
       <c r="I17" s="12" t="inlineStr"/>
+      <c r="J17" s="18" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1" s="1">
       <c r="A18" s="12" t="n">
@@ -1115,6 +1220,7 @@
       </c>
       <c r="H18" s="18" t="inlineStr"/>
       <c r="I18" s="12" t="inlineStr"/>
+      <c r="J18" s="18" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1" s="1">
       <c r="A19" s="12" t="n">
@@ -1148,6 +1254,7 @@
         </is>
       </c>
       <c r="I19" s="12" t="inlineStr"/>
+      <c r="J19" s="18" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1" s="1">
       <c r="A20" s="12" t="n">
@@ -1181,6 +1288,7 @@
       </c>
       <c r="H20" s="18" t="inlineStr"/>
       <c r="I20" s="12" t="inlineStr"/>
+      <c r="J20" s="18" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1" s="1">
       <c r="A21" s="12" t="n">
@@ -1196,7 +1304,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D21" s="18" t="inlineStr"/>
+      <c r="D21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E21" s="12" t="inlineStr"/>
       <c r="F21" s="18" t="inlineStr"/>
       <c r="G21" s="16" t="inlineStr">
@@ -1206,6 +1318,7 @@
       </c>
       <c r="H21" s="18" t="inlineStr"/>
       <c r="I21" s="12" t="inlineStr"/>
+      <c r="J21" s="18" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" s="1">
       <c r="A22" s="12" t="n">
@@ -1227,6 +1340,7 @@
       <c r="G22" s="12" t="inlineStr"/>
       <c r="H22" s="18" t="inlineStr"/>
       <c r="I22" s="12" t="inlineStr"/>
+      <c r="J22" s="18" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1" s="1">
       <c r="A23" s="12" t="n">
@@ -1248,6 +1362,7 @@
       </c>
       <c r="H23" s="18" t="inlineStr"/>
       <c r="I23" s="12" t="inlineStr"/>
+      <c r="J23" s="18" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" s="1">
       <c r="A24" s="12" t="n">
@@ -1258,17 +1373,34 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr"/>
-      <c r="D24" s="18" t="inlineStr"/>
-      <c r="E24" s="12" t="inlineStr"/>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F24" s="18" t="inlineStr"/>
       <c r="G24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H24" s="18" t="inlineStr"/>
+      <c r="H24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I24" s="12" t="inlineStr"/>
+      <c r="J24" s="18" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1" s="1">
       <c r="A25" s="12" t="n">
@@ -1314,6 +1446,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J25" s="18" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1" s="1">
       <c r="A26" s="12" t="n">
@@ -1337,8 +1470,13 @@
           <t>KRISTEN</t>
         </is>
       </c>
-      <c r="H26" s="18" t="inlineStr"/>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I26" s="12" t="inlineStr"/>
+      <c r="J26" s="18" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1" s="1">
       <c r="A27" s="12" t="n">
@@ -1372,6 +1510,7 @@
         </is>
       </c>
       <c r="I27" s="12" t="inlineStr"/>
+      <c r="J27" s="18" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1" s="1">
       <c r="A28" s="12" t="n">
@@ -1403,8 +1542,13 @@
           <t>KRISTEN</t>
         </is>
       </c>
-      <c r="H28" s="18" t="inlineStr"/>
+      <c r="H28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I28" s="12" t="inlineStr"/>
+      <c r="J28" s="18" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1" s="1">
       <c r="A29" s="12" t="n">
@@ -1426,6 +1570,7 @@
       </c>
       <c r="H29" s="18" t="inlineStr"/>
       <c r="I29" s="12" t="inlineStr"/>
+      <c r="J29" s="18" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1" s="1">
       <c r="A30" s="12" t="n">
@@ -1455,6 +1600,7 @@
       <c r="G30" s="12" t="inlineStr"/>
       <c r="H30" s="18" t="inlineStr"/>
       <c r="I30" s="12" t="inlineStr"/>
+      <c r="J30" s="18" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1" s="1">
       <c r="A31" s="12" t="n">
@@ -1495,7 +1641,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I31" s="12" t="inlineStr"/>
+      <c r="I31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J31" s="18" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1" s="1">
       <c r="A32" s="12" t="n">
@@ -1519,8 +1670,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H32" s="18" t="inlineStr"/>
+      <c r="H32" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I32" s="12" t="inlineStr"/>
+      <c r="J32" s="18" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1" s="1">
       <c r="A33" s="12" t="n">
@@ -1541,15 +1697,28 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E33" s="12" t="inlineStr"/>
-      <c r="F33" s="18" t="inlineStr"/>
+      <c r="E33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G33" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H33" s="18" t="inlineStr"/>
+      <c r="H33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I33" s="12" t="inlineStr"/>
+      <c r="J33" s="18" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1" s="1">
       <c r="A34" s="12" t="n">
@@ -1565,7 +1734,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D34" s="18" t="inlineStr"/>
+      <c r="D34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E34" s="12" t="inlineStr"/>
       <c r="F34" s="18" t="inlineStr"/>
       <c r="G34" s="16" t="inlineStr">
@@ -1573,8 +1746,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H34" s="18" t="inlineStr"/>
+      <c r="H34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I34" s="12" t="inlineStr"/>
+      <c r="J34" s="18" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1" s="1">
       <c r="A35" s="12" t="n">
@@ -1616,6 +1794,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J35" s="18" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1" s="1">
       <c r="A36" s="12" t="n">
@@ -1645,6 +1824,7 @@
       </c>
       <c r="H36" s="18" t="inlineStr"/>
       <c r="I36" s="12" t="inlineStr"/>
+      <c r="J36" s="18" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1" s="1">
       <c r="A37" s="12" t="n">
@@ -1655,7 +1835,11 @@
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="12" t="inlineStr"/>
+      <c r="C37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D37" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1677,7 +1861,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I37" s="12" t="inlineStr"/>
+      <c r="I37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J37" s="18" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -904,13 +904,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D9" s="18" t="inlineStr"/>
+      <c r="D9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F9" s="18" t="inlineStr"/>
+      <c r="F9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -985,7 +993,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I11" s="12" t="inlineStr"/>
+      <c r="I11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J11" s="18" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
@@ -1457,14 +1469,22 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="12" t="inlineStr"/>
+      <c r="C26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="E26" s="12" t="inlineStr"/>
-      <c r="F26" s="18" t="inlineStr"/>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G26" s="12" t="inlineStr">
         <is>
           <t>KRISTEN</t>
@@ -1597,8 +1617,16 @@
         </is>
       </c>
       <c r="F30" s="18" t="inlineStr"/>
-      <c r="G30" s="12" t="inlineStr"/>
-      <c r="H30" s="18" t="inlineStr"/>
+      <c r="G30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I30" s="12" t="inlineStr"/>
       <c r="J30" s="18" t="inlineStr"/>
     </row>
@@ -1657,7 +1685,11 @@
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="12" t="inlineStr"/>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D32" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1794,7 +1826,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J35" s="18" t="inlineStr"/>
+      <c r="J35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1" s="1">
       <c r="A36" s="12" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -751,7 +751,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr"/>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1567,7 +1571,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I28" s="12" t="inlineStr"/>
+      <c r="I28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J28" s="18" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1" s="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1462,7 +1462,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J25" s="18" t="inlineStr"/>
+      <c r="J25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1" s="1">
       <c r="A26" s="12" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1796,7 +1796,11 @@
         </is>
       </c>
       <c r="I34" s="12" t="inlineStr"/>
-      <c r="J34" s="18" t="inlineStr"/>
+      <c r="J34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1" s="1">
       <c r="A35" s="12" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1346,14 +1346,22 @@
         </is>
       </c>
       <c r="C22" s="12" t="inlineStr"/>
-      <c r="D22" s="18" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E22" s="12" t="inlineStr"/>
       <c r="F22" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr"/>
+      <c r="G22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H22" s="18" t="inlineStr"/>
       <c r="I22" s="12" t="inlineStr"/>
       <c r="J22" s="18" t="inlineStr"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -697,8 +697,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I3" s="12" t="inlineStr"/>
-      <c r="J3" s="18" t="inlineStr"/>
+      <c r="I3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" s="1">
       <c r="A4" s="12" t="n">
@@ -781,8 +789,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I5" s="12" t="inlineStr"/>
-      <c r="J5" s="18" t="inlineStr"/>
+      <c r="I5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="1">
       <c r="A6" s="12" t="n">
@@ -799,7 +815,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr"/>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F6" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -816,7 +836,11 @@
         </is>
       </c>
       <c r="I6" s="12" t="inlineStr"/>
-      <c r="J6" s="18" t="inlineStr"/>
+      <c r="J6" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
       <c r="A7" s="12" t="n">
@@ -842,7 +866,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F7" s="18" t="inlineStr"/>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -853,8 +881,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I7" s="12" t="inlineStr"/>
-      <c r="J7" s="18" t="inlineStr"/>
+      <c r="I7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="1">
       <c r="A8" s="12" t="n">
@@ -933,8 +969,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I9" s="12" t="inlineStr"/>
-      <c r="J9" s="18" t="inlineStr"/>
+      <c r="I9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="1">
       <c r="A10" s="12" t="n">
@@ -1002,7 +1046,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J11" s="18" t="inlineStr"/>
+      <c r="J11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="1">
       <c r="A12" s="12" t="n">
@@ -1019,7 +1067,11 @@
         </is>
       </c>
       <c r="D12" s="18" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr"/>
+      <c r="E12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F12" s="18" t="inlineStr"/>
       <c r="G12" s="16" t="inlineStr">
         <is>
@@ -1049,8 +1101,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E13" s="12" t="inlineStr"/>
-      <c r="F13" s="18" t="inlineStr"/>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G13" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1061,8 +1121,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I13" s="12" t="inlineStr"/>
-      <c r="J13" s="18" t="inlineStr"/>
+      <c r="I13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1" s="1">
       <c r="A14" s="12" t="n">
@@ -1103,8 +1171,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I14" s="12" t="inlineStr"/>
-      <c r="J14" s="18" t="inlineStr"/>
+      <c r="I14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1" s="1">
       <c r="A15" s="12" t="n">
@@ -1125,7 +1201,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E15" s="12" t="inlineStr"/>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F15" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1141,8 +1221,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I15" s="12" t="inlineStr"/>
-      <c r="J15" s="18" t="inlineStr"/>
+      <c r="I15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1" s="1">
       <c r="A16" s="12" t="n">
@@ -1163,14 +1251,26 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E16" s="12" t="inlineStr"/>
-      <c r="F16" s="18" t="inlineStr"/>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G16" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H16" s="18" t="inlineStr"/>
+      <c r="H16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I16" s="12" t="inlineStr"/>
       <c r="J16" s="18" t="inlineStr"/>
     </row>
@@ -1183,7 +1283,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="12" t="inlineStr"/>
+      <c r="C17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1195,8 +1299,16 @@
         </is>
       </c>
       <c r="F17" s="18" t="inlineStr"/>
-      <c r="G17" s="12" t="inlineStr"/>
-      <c r="H17" s="18" t="inlineStr"/>
+      <c r="G17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I17" s="12" t="inlineStr"/>
       <c r="J17" s="18" t="inlineStr"/>
     </row>
@@ -1235,8 +1347,16 @@
         </is>
       </c>
       <c r="H18" s="18" t="inlineStr"/>
-      <c r="I18" s="12" t="inlineStr"/>
-      <c r="J18" s="18" t="inlineStr"/>
+      <c r="I18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1" s="1">
       <c r="A19" s="12" t="n">
@@ -1247,7 +1367,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="12" t="inlineStr"/>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D19" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1258,7 +1382,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F19" s="18" t="inlineStr"/>
+      <c r="F19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1269,8 +1397,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I19" s="12" t="inlineStr"/>
-      <c r="J19" s="18" t="inlineStr"/>
+      <c r="I19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1" s="1">
       <c r="A20" s="12" t="n">
@@ -1291,7 +1427,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E20" s="12" t="inlineStr"/>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F20" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1303,8 +1443,16 @@
         </is>
       </c>
       <c r="H20" s="18" t="inlineStr"/>
-      <c r="I20" s="12" t="inlineStr"/>
-      <c r="J20" s="18" t="inlineStr"/>
+      <c r="I20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1" s="1">
       <c r="A21" s="12" t="n">
@@ -1325,16 +1473,28 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E21" s="12" t="inlineStr"/>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F21" s="18" t="inlineStr"/>
       <c r="G21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H21" s="18" t="inlineStr"/>
+      <c r="H21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I21" s="12" t="inlineStr"/>
-      <c r="J21" s="18" t="inlineStr"/>
+      <c r="J21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1" s="1">
       <c r="A22" s="12" t="n">
@@ -1351,7 +1511,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E22" s="12" t="inlineStr"/>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F22" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1362,7 +1526,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H22" s="18" t="inlineStr"/>
+      <c r="H22" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I22" s="12" t="inlineStr"/>
       <c r="J22" s="18" t="inlineStr"/>
     </row>
@@ -1375,16 +1543,32 @@
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="12" t="inlineStr"/>
+      <c r="C23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D23" s="18" t="inlineStr"/>
-      <c r="E23" s="12" t="inlineStr"/>
-      <c r="F23" s="18" t="inlineStr"/>
+      <c r="E23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G23" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H23" s="18" t="inlineStr"/>
+      <c r="H23" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I23" s="12" t="inlineStr"/>
       <c r="J23" s="18" t="inlineStr"/>
     </row>
@@ -1412,7 +1596,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F24" s="18" t="inlineStr"/>
+      <c r="F24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1423,8 +1611,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I24" s="12" t="inlineStr"/>
-      <c r="J24" s="18" t="inlineStr"/>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1" s="1">
       <c r="A25" s="12" t="n">
@@ -1495,7 +1691,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="12" t="inlineStr"/>
+      <c r="E26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1511,8 +1711,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I26" s="12" t="inlineStr"/>
-      <c r="J26" s="18" t="inlineStr"/>
+      <c r="I26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1" s="1">
       <c r="A27" s="12" t="n">
@@ -1523,7 +1731,11 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="12" t="inlineStr"/>
+      <c r="C27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D27" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1534,7 +1746,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F27" s="18" t="inlineStr"/>
+      <c r="F27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1546,7 +1762,11 @@
         </is>
       </c>
       <c r="I27" s="12" t="inlineStr"/>
-      <c r="J27" s="18" t="inlineStr"/>
+      <c r="J27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1" s="1">
       <c r="A28" s="12" t="n">
@@ -1567,7 +1787,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E28" s="12" t="inlineStr"/>
+      <c r="E28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F28" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1588,7 +1812,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J28" s="18" t="inlineStr"/>
+      <c r="J28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1" s="1">
       <c r="A29" s="12" t="n">
@@ -1601,7 +1829,11 @@
       </c>
       <c r="C29" s="12" t="inlineStr"/>
       <c r="D29" s="18" t="inlineStr"/>
-      <c r="E29" s="12" t="inlineStr"/>
+      <c r="E29" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F29" s="18" t="inlineStr"/>
       <c r="G29" s="16" t="inlineStr">
         <is>
@@ -1694,7 +1926,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J31" s="18" t="inlineStr"/>
+      <c r="J31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1" s="1">
       <c r="A32" s="12" t="n">
@@ -1715,8 +1951,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E32" s="12" t="inlineStr"/>
-      <c r="F32" s="18" t="inlineStr"/>
+      <c r="E32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G32" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1728,7 +1972,11 @@
         </is>
       </c>
       <c r="I32" s="12" t="inlineStr"/>
-      <c r="J32" s="18" t="inlineStr"/>
+      <c r="J32" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1" s="1">
       <c r="A33" s="12" t="n">
@@ -1769,8 +2017,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I33" s="12" t="inlineStr"/>
-      <c r="J33" s="18" t="inlineStr"/>
+      <c r="I33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1" s="1">
       <c r="A34" s="12" t="n">
@@ -1791,8 +2047,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E34" s="12" t="inlineStr"/>
-      <c r="F34" s="18" t="inlineStr"/>
+      <c r="E34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G34" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1829,7 +2093,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E35" s="12" t="inlineStr"/>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1875,15 +2143,31 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E36" s="12" t="inlineStr"/>
-      <c r="F36" s="18" t="inlineStr"/>
+      <c r="E36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G36" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H36" s="18" t="inlineStr"/>
-      <c r="I36" s="12" t="inlineStr"/>
+      <c r="H36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J36" s="18" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1" s="1">
@@ -1905,7 +2189,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E37" s="12" t="inlineStr"/>
+      <c r="E37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F37" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -747,8 +747,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I4" s="12" t="inlineStr"/>
-      <c r="J4" s="18" t="inlineStr"/>
+      <c r="I4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1" s="1">
       <c r="A5" s="12" t="n">
@@ -1272,7 +1280,11 @@
         </is>
       </c>
       <c r="I16" s="12" t="inlineStr"/>
-      <c r="J16" s="18" t="inlineStr"/>
+      <c r="J16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1" s="1">
       <c r="A17" s="12" t="n">
@@ -1478,7 +1490,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F21" s="18" t="inlineStr"/>
+      <c r="F21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1489,7 +1505,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I21" s="12" t="inlineStr"/>
+      <c r="I21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J21" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2067,7 +2087,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I34" s="12" t="inlineStr"/>
+      <c r="I34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J34" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -2001,7 +2001,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I32" s="12" t="inlineStr"/>
+      <c r="I32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J32" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G14" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="H14" s="17" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G26" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="H26" s="17" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G28" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="H28" s="17" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="G37" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="H37" s="17" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -2207,7 +2207,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J36" s="18" t="inlineStr"/>
+      <c r="J36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1" s="1">
       <c r="A37" s="12" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1090,7 +1090,11 @@
         </is>
       </c>
       <c r="H12" s="18" t="inlineStr"/>
-      <c r="I12" s="12" t="inlineStr"/>
+      <c r="I12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J12" s="18" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1" s="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1077,7 +1077,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D12" s="18" t="inlineStr"/>
+      <c r="D12" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E12" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1919,7 +1919,11 @@
         </is>
       </c>
       <c r="I30" s="12" t="inlineStr"/>
-      <c r="J30" s="18" t="inlineStr"/>
+      <c r="J30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1" s="1">
       <c r="A31" s="12" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1907,7 +1907,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F30" s="18" t="inlineStr"/>
+      <c r="F30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G30" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1800,7 +1800,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I27" s="12" t="inlineStr"/>
+      <c r="I27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J27" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1536,7 +1536,11 @@
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="12" t="inlineStr"/>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D22" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1369,7 +1369,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H18" s="18" t="inlineStr"/>
+      <c r="H18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -1321,7 +1321,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F17" s="18" t="inlineStr"/>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1332,8 +1336,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I17" s="12" t="inlineStr"/>
-      <c r="J17" s="18" t="inlineStr"/>
+      <c r="I17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J17" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1" s="1">
       <c r="A18" s="12" t="n">
